--- a/results/exact-method-results.xlsx
+++ b/results/exact-method-results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>dataset</t>
   </si>
@@ -32,45 +32,6 @@
   </si>
   <si>
     <t>search_space</t>
-  </si>
-  <si>
-    <t>100_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>100_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>100_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>exact-method</t>
   </si>
 </sst>
 </file>
@@ -428,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,282 +413,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>11.39722108840942</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>5.601737260818481</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>14.33111429214478</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3.960193395614624</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>9.244770526885986</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>9.936662912368774</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>8.382742881774902</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>16.19767308235168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>6.750462293624878</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>12.72646522521973</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>6.982886791229248</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>9.430588006973267</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
